--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maccuacu/Desktop/da1/QuanlyChuoiCH/src/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn1_Java_PTPM\Du_an_1\DuAn1Nhom3\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF333806-4C68-1748-B0D6-BFF3765FEC78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149F4F3-3A69-4F3E-8500-192E554E5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,19 +412,19 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn1_Java_PTPM\Du_an_1\DuAn1Nhom3\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149F4F3-3A69-4F3E-8500-192E554E5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86880F1-5262-442D-8911-D624AE380517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn1_Java_PTPM\Du_an_1\DuAn1Nhom3\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86880F1-5262-442D-8911-D624AE380517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E8B04-3705-4006-BEFA-BFD74EB8512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -58,16 +58,115 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>SP009</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 1</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D76</t>
+  </si>
+  <si>
+    <t>SP010</t>
+  </si>
+  <si>
+    <t>SP011</t>
+  </si>
+  <si>
+    <t>SP012</t>
+  </si>
+  <si>
+    <t>SP013</t>
+  </si>
+  <si>
+    <t>SP014</t>
+  </si>
+  <si>
+    <t>SP015</t>
+  </si>
+  <si>
+    <t>SP016</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 2</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D77</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 3</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D78</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 4</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D79</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 5</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D80</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 6</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D81</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 7</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D82</t>
+  </si>
+  <si>
+    <t>Nguồn gốc 8</t>
+  </si>
+  <si>
+    <t>7E90870D-89E3-4AEB-9130-176566081D83</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>SP5</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>SP7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,8 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65306FBD-D576-1D47-9A7B-B8C8FCBA4E34}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -459,7 +560,264 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>100001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>100002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>100003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>100004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>100005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>100006</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>100007</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44511</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44511</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44511</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44511</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn1_Java_PTPM\Du_an_1\DuAn1Nhom3\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maccuacu/Desktop/da1/QuanlyChuoiCH/src/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E8B04-3705-4006-BEFA-BFD74EB8512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDAF0F-22BA-5A4C-9835-13B58CE42F5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Code</t>
   </si>
@@ -69,9 +66,6 @@
     <t>Nguồn gốc 1</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D76</t>
-  </si>
-  <si>
     <t>SP010</t>
   </si>
   <si>
@@ -96,45 +90,24 @@
     <t>Nguồn gốc 2</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D77</t>
-  </si>
-  <si>
     <t>Nguồn gốc 3</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D78</t>
-  </si>
-  <si>
     <t>Nguồn gốc 4</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D79</t>
-  </si>
-  <si>
     <t>Nguồn gốc 5</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D80</t>
-  </si>
-  <si>
     <t>Nguồn gốc 6</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D81</t>
-  </si>
-  <si>
     <t>Nguồn gốc 7</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D82</t>
-  </si>
-  <si>
     <t>Nguồn gốc 8</t>
   </si>
   <si>
-    <t>7E90870D-89E3-4AEB-9130-176566081D83</t>
-  </si>
-  <si>
     <t>SP2</t>
   </si>
   <si>
@@ -151,12 +124,39 @@
   </si>
   <si>
     <t>SP7</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e29</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e30</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e31</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e32</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e33</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e34</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e35</t>
+  </si>
+  <si>
+    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,10 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,22 +511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65306FBD-D576-1D47-9A7B-B8C8FCBA4E34}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,263 +557,260 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44511</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44512</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44512</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44512</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
         <v>100000</v>
       </c>
-      <c r="F2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E3" s="1">
+        <v>44512</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44513</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44513</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44513</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44513</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44514</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44514</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44514</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>100001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44514</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44515</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44515</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44515</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="D6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44515</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44516</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44516</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44516</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>100002</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="D7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44516</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44517</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44517</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44517</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="D8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44517</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44518</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44518</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44518</v>
+      </c>
+      <c r="J8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>100003</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>100004</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>100005</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44518</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44519</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>100006</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9">
-        <v>100007</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
+      <c r="H9" s="1">
+        <v>44519</v>
       </c>
       <c r="I9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K9" s="1">
+        <v>44519</v>
+      </c>
+      <c r="J9" s="2">
         <v>1</v>
       </c>
     </row>

--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn1_Java_PTPM\Du_an_1\DuAn1Nhom3\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E8B04-3705-4006-BEFA-BFD74EB8512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95181F9B-4CFD-4265-BE14-0E3F4A968B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -157,6 +157,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -194,8 +197,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65306FBD-D576-1D47-9A7B-B8C8FCBA4E34}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -525,7 +528,7 @@
     <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -573,26 +576,24 @@
       <c r="E2">
         <v>100000</v>
       </c>
-      <c r="F2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
+      <c r="I2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -605,26 +606,23 @@
       <c r="E3">
         <v>100001</v>
       </c>
-      <c r="F3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="2">
+        <v>44512</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44512</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J3" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="I3" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44512</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -637,26 +635,23 @@
       <c r="E4">
         <v>100002</v>
       </c>
-      <c r="F4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>44513</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44513</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
+      <c r="I4" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44513</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -669,26 +664,23 @@
       <c r="E5">
         <v>100003</v>
       </c>
-      <c r="F5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>44514</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44514</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J5" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
+      <c r="I5" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44514</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -701,26 +693,23 @@
       <c r="E6">
         <v>100004</v>
       </c>
-      <c r="F6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>44515</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44515</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
+      <c r="I6" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44515</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -733,26 +722,23 @@
       <c r="E7">
         <v>100005</v>
       </c>
-      <c r="F7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>44516</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44516</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J7" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
+      <c r="I7" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44516</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -765,26 +751,23 @@
       <c r="E8">
         <v>100006</v>
       </c>
-      <c r="F8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="2">
+        <v>44517</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44517</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
+      <c r="I8" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44517</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -797,27 +780,25 @@
       <c r="E9">
         <v>100007</v>
       </c>
-      <c r="F9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="2">
+        <v>44518</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44518</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="J9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
+      <c r="I9" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44518</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maccuacu/Desktop/da1/QuanlyChuoiCH/src/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAB959-5491-3E44-94C7-43384E3A44A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85EB481-DA83-AA4A-B6EE-EF67646A5AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Code</t>
   </si>
@@ -57,75 +57,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>SP009</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 1</t>
-  </si>
-  <si>
-    <t>SP010</t>
-  </si>
-  <si>
-    <t>SP011</t>
-  </si>
-  <si>
-    <t>SP012</t>
-  </si>
-  <si>
-    <t>SP013</t>
-  </si>
-  <si>
-    <t>SP014</t>
-  </si>
-  <si>
-    <t>SP015</t>
-  </si>
-  <si>
-    <t>SP016</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 2</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 3</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 4</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 5</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 6</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 7</t>
-  </si>
-  <si>
-    <t>Nguồn gốc 8</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>SP5</t>
-  </si>
-  <si>
-    <t>SP6</t>
-  </si>
-  <si>
-    <t>SP7</t>
-  </si>
-  <si>
     <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e29</t>
   </si>
   <si>
@@ -151,6 +82,60 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Thịt bò</t>
+  </si>
+  <si>
+    <t>Thịt lợn</t>
+  </si>
+  <si>
+    <t>SP0020</t>
+  </si>
+  <si>
+    <t>SP0021</t>
+  </si>
+  <si>
+    <t>SP0022</t>
+  </si>
+  <si>
+    <t>SP0023</t>
+  </si>
+  <si>
+    <t>SP0024</t>
+  </si>
+  <si>
+    <t>SP0025</t>
+  </si>
+  <si>
+    <t>SP0026</t>
+  </si>
+  <si>
+    <t>SP0027</t>
+  </si>
+  <si>
+    <t>Thịt gà</t>
+  </si>
+  <si>
+    <t>Rau cải</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
+  </si>
+  <si>
+    <t>Cà rốt</t>
+  </si>
+  <si>
+    <t>Ớt chuông</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Thanh Xuân</t>
   </si>
 </sst>
 </file>
@@ -516,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65306FBD-D576-1D47-9A7B-B8C8FCBA4E34}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -567,19 +552,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F2" s="1">
         <v>44511</v>
@@ -588,7 +573,7 @@
         <v>45242</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
         <v>44512</v>
@@ -602,19 +587,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="1">
         <v>44512</v>
@@ -623,7 +608,7 @@
         <v>45243</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1">
         <v>44513</v>
@@ -637,19 +622,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
-        <v>100000</v>
+        <v>9000</v>
       </c>
       <c r="F4" s="1">
         <v>44513</v>
@@ -658,7 +643,7 @@
         <v>45244</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>44514</v>
@@ -672,19 +657,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2">
         <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100000</v>
       </c>
       <c r="F5" s="1">
         <v>44514</v>
@@ -693,7 +678,7 @@
         <v>45245</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>44515</v>
@@ -707,19 +692,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
         <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100000</v>
       </c>
       <c r="F6" s="1">
         <v>44515</v>
@@ -728,7 +713,7 @@
         <v>45246</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1">
         <v>44516</v>
@@ -742,19 +727,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
         <v>44516</v>
@@ -763,7 +748,7 @@
         <v>45247</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>44517</v>
@@ -777,19 +762,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>44517</v>
@@ -798,7 +783,7 @@
         <v>45248</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1">
         <v>44518</v>
@@ -812,19 +797,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1">
         <v>44518</v>
@@ -833,7 +818,7 @@
         <v>45249</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1">
         <v>44519</v>

--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn1_Java_PTPM\Du_an_1\DuAn1Nhom3\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95181F9B-4CFD-4265-BE14-0E3F4A968B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DC623-022C-46F0-B387-0568C561AC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Code</t>
   </si>
@@ -158,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -195,10 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,22 +511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65306FBD-D576-1D47-9A7B-B8C8FCBA4E34}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,241 +557,261 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44511</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44511</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44511</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44511</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>100001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44512</v>
       </c>
       <c r="F3" s="2">
         <v>44512</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I3" s="2">
         <v>44512</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>100002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44513</v>
       </c>
       <c r="F4" s="2">
         <v>44513</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I4" s="2">
         <v>44513</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>100003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44514</v>
       </c>
       <c r="F5" s="2">
         <v>44514</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I5" s="2">
         <v>44514</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
         <v>100004</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44515</v>
       </c>
       <c r="F6" s="2">
         <v>44515</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I6" s="2">
         <v>44515</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
         <v>100005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44516</v>
       </c>
       <c r="F7" s="2">
         <v>44516</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I7" s="2">
         <v>44516</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
         <v>100006</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44517</v>
       </c>
       <c r="F8" s="2">
         <v>44517</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I8" s="2">
         <v>44517</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>100007</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44518</v>
       </c>
       <c r="F9" s="2">
         <v>44518</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44511</v>
+      </c>
+      <c r="I9" s="2">
         <v>44518</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44511</v>
-      </c>
-      <c r="J9" s="2">
-        <v>44518</v>
+      <c r="J9" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maccuacu/Desktop/da1/QuanlyChuoiCH/src/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85EB481-DA83-AA4A-B6EE-EF67646A5AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151BDB3C-15F8-0C43-ADDB-9F02625F7CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -63,24 +63,6 @@
     <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e30</t>
   </si>
   <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e31</t>
-  </si>
-  <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e32</t>
-  </si>
-  <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e33</t>
-  </si>
-  <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e34</t>
-  </si>
-  <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e35</t>
-  </si>
-  <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e36</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -136,6 +118,24 @@
   </si>
   <si>
     <t>Thanh Xuân</t>
+  </si>
+  <si>
+    <t>7e90870d-89e3-4aeb-9130-176566081d76</t>
+  </si>
+  <si>
+    <t>b387b2d6-3e7f-4f7a-b7df-32d21a47c3e9</t>
+  </si>
+  <si>
+    <t>a8e62e50-9cea-4b0c-a3c3-91c3b5c3a35d</t>
+  </si>
+  <si>
+    <t>8a2f1ebd-c1aa-46c4-a7e3-35a1337a60e4</t>
+  </si>
+  <si>
+    <t>7e90870d-89e3-4aeb-9130-176566081d77</t>
+  </si>
+  <si>
+    <t>b387b2d6-3e7f-4f7a-b7df-32d21a47c3e10</t>
   </si>
 </sst>
 </file>
@@ -180,11 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65306FBD-D576-1D47-9A7B-B8C8FCBA4E34}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,6 +512,7 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -523,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -552,19 +554,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
         <v>44511</v>
@@ -587,19 +589,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
         <v>44512</v>
@@ -607,8 +609,8 @@
       <c r="G3" s="1">
         <v>45243</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>44513</v>
@@ -622,19 +624,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
-        <v>9000</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
         <v>44513</v>
@@ -643,7 +645,7 @@
         <v>45244</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1">
         <v>44514</v>
@@ -657,16 +659,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -678,7 +680,7 @@
         <v>45245</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1">
         <v>44515</v>
@@ -692,16 +694,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -713,7 +715,7 @@
         <v>45246</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>44516</v>
@@ -727,16 +729,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>200</v>
@@ -748,7 +750,7 @@
         <v>45247</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1">
         <v>44517</v>
@@ -762,16 +764,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -782,8 +784,8 @@
       <c r="G8" s="1">
         <v>45248</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>44518</v>
@@ -797,16 +799,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
@@ -818,7 +820,7 @@
         <v>45249</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1">
         <v>44519</v>

--- a/src/Excel/Products.xlsx
+++ b/src/Excel/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maccuacu/Desktop/da1/QuanlyChuoiCH/src/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151BDB3C-15F8-0C43-ADDB-9F02625F7CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26C6F1-660E-CB42-A9CA-A586781212AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" xr2:uid="{862D2307-B0B9-A248-9588-08AF73614AFD}"/>
   </bookViews>
@@ -57,12 +57,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e29</t>
-  </si>
-  <si>
-    <t>ff9f0d7b-41ef-482a-9e84-2b81e7aa6e30</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -120,22 +114,28 @@
     <t>Thanh Xuân</t>
   </si>
   <si>
-    <t>7e90870d-89e3-4aeb-9130-176566081d76</t>
-  </si>
-  <si>
-    <t>b387b2d6-3e7f-4f7a-b7df-32d21a47c3e9</t>
-  </si>
-  <si>
-    <t>a8e62e50-9cea-4b0c-a3c3-91c3b5c3a35d</t>
-  </si>
-  <si>
-    <t>8a2f1ebd-c1aa-46c4-a7e3-35a1337a60e4</t>
-  </si>
-  <si>
-    <t>7e90870d-89e3-4aeb-9130-176566081d77</t>
-  </si>
-  <si>
-    <t>b387b2d6-3e7f-4f7a-b7df-32d21a47c3e10</t>
+    <t>2e3c349e-5771-4db8-afce-3b49c81497a9</t>
+  </si>
+  <si>
+    <t>daddfeb5-d712-4c3c-bef6-44bfe4dd93f4</t>
+  </si>
+  <si>
+    <t>b3ac610a-935c-4999-9fa2-657130522694</t>
+  </si>
+  <si>
+    <t>e9ec8014-8dcb-42c9-815e-66d5b6c4d1dd</t>
+  </si>
+  <si>
+    <t>d894fc3d-59ef-4396-9cb5-7b334cf0759d</t>
+  </si>
+  <si>
+    <t>c088c5ad-5835-441d-a70e-8425f7e65587</t>
+  </si>
+  <si>
+    <t>b2e2d8b6-3f64-4378-8407-8b54a01055ad</t>
+  </si>
+  <si>
+    <t>879fe168-3c5d-4847-95da-a2e996b02dc8</t>
   </si>
 </sst>
 </file>
@@ -180,12 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +502,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -554,16 +553,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2">
         <v>200</v>
@@ -575,7 +574,7 @@
         <v>45242</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1">
         <v>44512</v>
@@ -589,16 +588,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -609,8 +608,8 @@
       <c r="G3" s="1">
         <v>45243</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>44513</v>
@@ -624,16 +623,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>90</v>
@@ -645,7 +644,7 @@
         <v>45244</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1">
         <v>44514</v>
@@ -659,16 +658,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -680,7 +679,7 @@
         <v>45245</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1">
         <v>44515</v>
@@ -694,16 +693,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -715,7 +714,7 @@
         <v>45246</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1">
         <v>44516</v>
@@ -729,16 +728,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>200</v>
@@ -750,7 +749,7 @@
         <v>45247</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>44517</v>
@@ -764,16 +763,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -784,7 +783,7 @@
       <c r="G8" s="1">
         <v>45248</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="1">
@@ -799,16 +798,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>300</v>
@@ -835,5 +834,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>